--- a/seap_results.xlsx
+++ b/seap_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeapMonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDEBC0D-B8DA-4200-B232-F41DECE4188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D3BBA8-1816-4CEA-BEE5-E0731C6EDD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="140">
   <si>
     <t>Data detectării</t>
   </si>
@@ -251,6 +251,195 @@
   </si>
   <si>
     <t>05.06.2025 14:07</t>
+  </si>
+  <si>
+    <t>2025-05-30 08:22:54</t>
+  </si>
+  <si>
+    <t>ADV1484229</t>
+  </si>
+  <si>
+    <t>sursa neintreruptibila de curent (UPS) line-interactive 3000 VA, 2700 W, 9 iesiri</t>
+  </si>
+  <si>
+    <t>sursa</t>
+  </si>
+  <si>
+    <t>ADV1484226</t>
+  </si>
+  <si>
+    <t>SURSĂ DE TENSIUNE PT APARAT ROENTGENDIAGNOSTIC DIGITAL OPERAT T90CEX</t>
+  </si>
+  <si>
+    <t>30.05.2025 23:30</t>
+  </si>
+  <si>
+    <t>2025-05-30 08:26:32</t>
+  </si>
+  <si>
+    <t>ADV1484231</t>
+  </si>
+  <si>
+    <t>STUDIU GEOTEHNIC - Realizare branșament și instalație interioară de gaze naturale și amenajare platforma pentru amplasare containere modulare în Cazarma 942 Ştefănești”, cod proiect 2023-I-942</t>
+  </si>
+  <si>
+    <t>05.06.2025 09:00</t>
+  </si>
+  <si>
+    <t>Neconcludent</t>
+  </si>
+  <si>
+    <t>2025-05-30 08:28:06</t>
+  </si>
+  <si>
+    <t>ADV1484239</t>
+  </si>
+  <si>
+    <t>Închiriere autovehicule transport mixt, persoane şi materiale, cu şofer, pentru subunităţile Sucursalei Miniere Târgu – Jiu, respectiv Unitatea Minieră de Cariere Rovinari</t>
+  </si>
+  <si>
+    <t>2025-05-30 08:28:07</t>
+  </si>
+  <si>
+    <t>ADV1484207</t>
+  </si>
+  <si>
+    <t>Accesorii pentru sudură</t>
+  </si>
+  <si>
+    <t>05.06.2025 11:00</t>
+  </si>
+  <si>
+    <t>2025-05-30 12:45:45</t>
+  </si>
+  <si>
+    <t>ADV1484334</t>
+  </si>
+  <si>
+    <t>Placă/Modul de rețea Teletek Iris</t>
+  </si>
+  <si>
+    <t>placa</t>
+  </si>
+  <si>
+    <t>2025-05-30 12:46:05</t>
+  </si>
+  <si>
+    <t>ADV1484303</t>
+  </si>
+  <si>
+    <t>42622 - Cheie interblocaj cu bobina</t>
+  </si>
+  <si>
+    <t>bobina</t>
+  </si>
+  <si>
+    <t>05.06.2025 10:02</t>
+  </si>
+  <si>
+    <t>2025-05-30 12:46:31</t>
+  </si>
+  <si>
+    <t>ADV1484368</t>
+  </si>
+  <si>
+    <t>Furnizare panouri cu led -aplicate pentru Magazinul de Bunuri Confiscate din cadrul DGRFP-B</t>
+  </si>
+  <si>
+    <t>led</t>
+  </si>
+  <si>
+    <t>03.06.2025 23:30</t>
+  </si>
+  <si>
+    <t>ADV1484289</t>
+  </si>
+  <si>
+    <t>Panou led rotund montaj ingropat Eco 28W 2700-3000K ori similar</t>
+  </si>
+  <si>
+    <t>02.06.2025 13:00</t>
+  </si>
+  <si>
+    <t>2025-05-30 12:47:52</t>
+  </si>
+  <si>
+    <t>ADV1484326</t>
+  </si>
+  <si>
+    <t>ACHIZIȚIE A 3 BUCAȚI - CONTAINER TIP SALĂ DE CLASĂ MODUL DUBLU ECHIPAT</t>
+  </si>
+  <si>
+    <t>09.06.2025 10:41</t>
+  </si>
+  <si>
+    <t>2025-05-30 12:47:53</t>
+  </si>
+  <si>
+    <t>ADV1484309</t>
+  </si>
+  <si>
+    <t>Modul de extensie Teletek Iris</t>
+  </si>
+  <si>
+    <t>2025-05-30 12:48:08</t>
+  </si>
+  <si>
+    <t>ADV1484310</t>
+  </si>
+  <si>
+    <t>Releu vertical 48V DC 20A – 12 buc</t>
+  </si>
+  <si>
+    <t>releu</t>
+  </si>
+  <si>
+    <t>04.06.2025 11:00</t>
+  </si>
+  <si>
+    <t>ADV1484308</t>
+  </si>
+  <si>
+    <t>ACHIZIȚIE RELEU INCARCARE</t>
+  </si>
+  <si>
+    <t>04.06.2025 10:30</t>
+  </si>
+  <si>
+    <t>2025-05-30 12:48:29</t>
+  </si>
+  <si>
+    <t>ADV1484344</t>
+  </si>
+  <si>
+    <t>ACHIZITIE SERVICII DE IMPLEMENTARE A SISTEMELOR SI DISPOZITIVELOR DE SUPRAVEGHERE SI SECURITATE</t>
+  </si>
+  <si>
+    <t>06.06.2025 14:00</t>
+  </si>
+  <si>
+    <t>2025-05-30 12:49:27</t>
+  </si>
+  <si>
+    <t>ADV1484379</t>
+  </si>
+  <si>
+    <t>materiale de constructii</t>
+  </si>
+  <si>
+    <t>05.06.2025 10:00</t>
+  </si>
+  <si>
+    <t>ADV1484283</t>
+  </si>
+  <si>
+    <t>Piatră de calcar</t>
+  </si>
+  <si>
+    <t>06.06.2025 10:30</t>
+  </si>
+  <si>
+    <t>Lipsa Stoc</t>
   </si>
 </sst>
 </file>
@@ -597,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,8 +797,9 @@
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -855,6 +1045,9 @@
       <c r="E14" t="s">
         <v>54</v>
       </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -954,6 +1147,323 @@
       </c>
       <c r="F19" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/seap_results.xlsx
+++ b/seap_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeapMonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D3BBA8-1816-4CEA-BEE5-E0731C6EDD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5CB974-4C5E-420D-A7A8-F9A604AA7787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="178">
   <si>
     <t>Data detectării</t>
   </si>
@@ -397,6 +397,9 @@
     <t>04.06.2025 11:00</t>
   </si>
   <si>
+    <t>Lipsa Stoc</t>
+  </si>
+  <si>
     <t>ADV1484308</t>
   </si>
   <si>
@@ -439,7 +442,118 @@
     <t>06.06.2025 10:30</t>
   </si>
   <si>
-    <t>Lipsa Stoc</t>
+    <t>2025-05-30 14:09:47</t>
+  </si>
+  <si>
+    <t>ADV1484429</t>
+  </si>
+  <si>
+    <t>Execuție fundații la stâlpii din cadrul celor 3 lucrări de investiții „M-21-T006 Lucrare de intarire retea in amonte de punctul de racordare-realizare racord 20kV si post de transformare Chiuzabaia Groape” „M-23-T101 Intarire retea in amonte de punctul de racordare - realizare circuit 0,4 kV din PT</t>
+  </si>
+  <si>
+    <t>05.06.2025 14:00</t>
+  </si>
+  <si>
+    <t>2025-05-30 14:09:53</t>
+  </si>
+  <si>
+    <t>ADV1484401</t>
+  </si>
+  <si>
+    <t>Scule de mana si materile electrice</t>
+  </si>
+  <si>
+    <t>02.06.2025 16:00</t>
+  </si>
+  <si>
+    <t>2025-05-30 14:10:17</t>
+  </si>
+  <si>
+    <t>ADV1484402</t>
+  </si>
+  <si>
+    <t>Achizitie cabluri date</t>
+  </si>
+  <si>
+    <t>03.06.2025 13:39</t>
+  </si>
+  <si>
+    <t>2025-05-30 14:10:45</t>
+  </si>
+  <si>
+    <t>ADV1484409</t>
+  </si>
+  <si>
+    <t>Lampa led iluminat stradal</t>
+  </si>
+  <si>
+    <t>2025-05-30 14:10:53</t>
+  </si>
+  <si>
+    <t>ADV1484420</t>
+  </si>
+  <si>
+    <t>stabilizator de tensiune pt. echipament de tomografie Siemens Somatom Scope Power</t>
+  </si>
+  <si>
+    <t>stabilizator</t>
+  </si>
+  <si>
+    <t>02.06.2025 12:00</t>
+  </si>
+  <si>
+    <t>2025-05-30 14:11:18</t>
+  </si>
+  <si>
+    <t>ADV1484361</t>
+  </si>
+  <si>
+    <t>Realizare releveu arhitectural si topografic</t>
+  </si>
+  <si>
+    <t>rele</t>
+  </si>
+  <si>
+    <t>06.06.2025 23:30</t>
+  </si>
+  <si>
+    <t>2025-05-30 14:14:45</t>
+  </si>
+  <si>
+    <t>ADV1484443</t>
+  </si>
+  <si>
+    <t>COȘERIT - CURĂȚARE COȘ DE FUM</t>
+  </si>
+  <si>
+    <t>sigurante</t>
+  </si>
+  <si>
+    <t>04.06.2025 08:00</t>
+  </si>
+  <si>
+    <t>2025-05-30 14:15:19</t>
+  </si>
+  <si>
+    <t>ADV1484444</t>
+  </si>
+  <si>
+    <t>Materiale electrice</t>
+  </si>
+  <si>
+    <t>echipamente de laborator</t>
+  </si>
+  <si>
+    <t>03.06.2025 10:00</t>
+  </si>
+  <si>
+    <t>2025-05-30 14:17:31</t>
+  </si>
+  <si>
+    <t>ADV1484445</t>
+  </si>
+  <si>
+    <t>Agent Frigorific- Freon</t>
   </si>
 </sst>
 </file>
@@ -786,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,6 +1379,9 @@
       <c r="E25" t="s">
         <v>49</v>
       </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1383,7 +1500,7 @@
         <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1391,16 +1508,16 @@
         <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
         <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F32" t="s">
         <v>88</v>
@@ -1408,19 +1525,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
         <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
         <v>88</v>
@@ -1428,19 +1545,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
         <v>88</v>
@@ -1448,21 +1565,195 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" t="s">
         <v>88</v>
       </c>
     </row>

--- a/seap_results.xlsx
+++ b/seap_results.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
@@ -1805,6 +1805,465 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-06-02 07:54:02</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ADV1484477</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Prize duble aplicate cu impamantare si sigurante automate IP+N 16A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>siguranta</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>04.06.2025 07:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-06-02 07:54:04</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ADV1484467</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Servicii de verificare periodica a etanseitatii surselor radioactive la sistemul de masurare al fluidelor - gamadensiometrul tip OHMART</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>switch</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>03.06.2025 14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-06-02 07:54:10</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ADV1484481</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Cablu FTP cu sufa cupru pur 0.45 mm 305 m</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>pini</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>04.06.2025 07:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-06-02 09:54:26</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ADV1484511</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Cablu fibra optica</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>cablu</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>04.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-06-02 09:54:52</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ADV1484483</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Becuri led 18 W si 30 W-E27 -lumina rece</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>04.06.2025 07:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-06-02 09:56:12</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ADV1484498</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Piese de schimb motocositoare, motofreze zapada, etc – pachet filtre ulei, motorina, aer, decantor motorina, ulei 10 w 30 pentru grup sudura</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>COMPANIA DE TRANSPORT PUBLIC SA Arad</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>03.06.2025 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-06-02 11:29:43</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ADV1484521</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Elaborare documentatie tehnica de fundamentare necesara obtinerii avizului de gospodarire a apelor pentru: Proiectul privind cresterea ponderii productiei de energie electrica din surse regenerabile prin finalizarea lucrarilor si asigurarea monitorizarii permanente a impactului asupra mediului la co</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>surse</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>10.06.2025 11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-06-02 14:59:37</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ADV1482679</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Proiectare si executie lucrari pentru construire sisteme de producere a energiei electrice, compus din panouri electrice fotovoltaice monocristaline, pentru 10 imobile ale IPJ Vâlcea (contine clarificari si doc suplimentare)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>06.06.2025 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-06-02 14:59:45</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ADV1484628</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Proiect siguranta cladirii - 4 cladiri</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>siguranta</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>12.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-06-02 14:59:50</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ADV1484578</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>„Achiziționare servicii de instruire specifică, respectiv cursuri Cisco CCNA - Cisco Certified Networking Associate format din mai multe module: CCNA 1 - Introduction to Networks (ITN), CCNA 2 - Switching, Routing, and Wireless Essentials (SRWE), CCNA 3 - Enterprise Networking, Security, and Automat</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>switch</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>06.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-06-02 15:00:03</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ADV1484637</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Furtun de la vasul de expansiune/Cablu timonerie/Suport cablu timonerie</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>cablu</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>04.06.2025 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-06-02 15:00:30</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ADV1484610</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Becuri LED</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>04.06.2025 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-06-02 15:00:30</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ADV1484585</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>LAMPĂ DE ILUMINAT STRADAL TIP LED</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>04.06.2025 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-06-02 15:00:52</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ADV1484600</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Senzor de fum autonom cu buzzer</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>senzor</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>04.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-06-02 15:00:53</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ADV1478747</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SENZOR MONITORIZARE TEMPERATURA LA DISTANTA</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>senzor</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>16.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-06-02 15:01:10</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ADV1484642</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Achizitie dispozitive de masurare lichide</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>dispozitive</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>11.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-06-02 15:01:19</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ADV1484569</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Furnizare materiale didactice aferente laboratorului de stiinte si cabinetului scolar in cadrul proiectului: “DOTAREA CU MOBILIER, MATERIALE DIDACTICE ȘI ECHIPAMENTE DIGITALE A ȘCOLII GIMNAZIALE BATARCI”</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>echipamente de laborator</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>11.06.2025 11:38</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/seap_results.xlsx
+++ b/seap_results.xlsx
@@ -419,10 +419,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1654,6 +1654,11 @@
           <t>02.06.2025 12:00</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1745,6 +1750,11 @@
           <t>03.06.2025 10:00</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1939,6 +1949,11 @@
           <t>04.06.2025 07:30</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Neconcludent</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1966,6 +1981,11 @@
           <t>03.06.2025 15:00</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Neconcludent</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1993,6 +2013,11 @@
           <t>10.06.2025 11:00</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Neconcludent</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2020,6 +2045,11 @@
           <t>06.06.2025 10:00</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Neconcludent</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2047,6 +2077,11 @@
           <t>12.06.2025 12:00</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Neconcludent</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2261,6 +2296,357 @@
       <c r="E62" t="inlineStr">
         <is>
           <t>11.06.2025 11:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-03 08:55:14</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ADV1484689</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sigurante MT 24kV 1A si 0,3 A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>sigurante</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>06.06.2025 08:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-03 13:10:22</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ADV1484731</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Materiale intretinere si electrice</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>05.06.2025 23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-03 13:10:30</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ADV1467362</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Furnizare sistem iluminat scena 4 buc Proiector profil 25° - 50° 750W cu lampa 750W inlc. cablu de siguranta</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>siguranta</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>10.06.2025 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-03 13:10:30</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ADV1484744</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Siguranta automata</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>siguranta</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>04.06.2025 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-03 13:11:39</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ADV1467357</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Furnizare set platforma modulara 2x1m</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>modul</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>10.06.2025 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-03 13:11:39</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ADV1467350</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Furnizare Set picioare telescopice ajustabile de la 90cm la 160cm pentru platforma modular pt. 6 platforme</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>modul</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>10.06.2025 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-03 13:11:39</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ADV1484728</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Achiziție modul SFP</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>modul</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>06.06.2025 10:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-03 13:12:34</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ADV1484766</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Unsori si vaseline – Vaselina 18 kg</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>COMPANIA DE TRANSPORT PUBLIC SA Arad</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>04.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-03 13:12:34</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ADV1484757</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Uleiuri minerale – Ulei full sintetic. 15w40 - 200 litri</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>COMPANIA DE TRANSPORT PUBLIC SA Arad</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>04.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-03 15:44:07</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ADV1484856</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SERVICII DE VERIFICARE, REPARARE SI REGLARE DISPOZITIVE DE SIGURANTA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>siguranta</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>06.06.2025 16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-03 15:45:30</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ADV1484809</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SERVICII DE VERIFICARE SI INTRETINERE TEHNICA PERIODICA A DISPOZITIVELOR MEDICALE UTILIZATE IN LABORATOR</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>dispozitive</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>05.06.2025 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-03 15:45:39</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ADV1484826</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Materiale specifice pentru LABORATORUL DE BIOLOGIE – LICEUL SPECIAL PENTRU DEFICIENȚI DE VEDERE, în cadrul proiectului „Dotare cu Mobilier, Materiale Didactice și Echipamente Digitale a Unităților de Învățământ Special din Județul Cluj”</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>echipamente de laborator</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>10.06.2025 23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-03 15:45:59</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ADV1484845</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>,,Servicii de monitorizare a sistemelor de securitate si intervenţie rapidă: lot 1 + lot 2 + lot 3 + lot 4 + lot 5 + lot 6’’</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Societatea COMPLEXUL ENERGETIC OLTENIA SA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>11.06.2025 10:30</t>
         </is>
       </c>
     </row>

--- a/seap_results.xlsx
+++ b/seap_results.xlsx
@@ -419,10 +419,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1814,6 +1814,11 @@
           <t>10.06.2025 14:00</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1841,6 +1846,11 @@
           <t>04.06.2025 07:25</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1868,6 +1878,11 @@
           <t>03.06.2025 14:00</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1895,6 +1910,11 @@
           <t>04.06.2025 07:28</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1922,6 +1942,11 @@
           <t>04.06.2025 12:00</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2109,6 +2134,11 @@
           <t>06.06.2025 12:00</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Neconcludent</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2136,6 +2166,11 @@
           <t>04.06.2025 15:00</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2163,6 +2198,11 @@
           <t>04.06.2025 15:00</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2190,6 +2230,11 @@
           <t>04.06.2025 10:00</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2217,6 +2262,11 @@
           <t>04.06.2025 12:00</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2244,6 +2294,11 @@
           <t>16.06.2025 12:00</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2271,6 +2326,11 @@
           <t>11.06.2025 12:00</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2298,6 +2358,11 @@
           <t>11.06.2025 11:38</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2325,6 +2390,11 @@
           <t>06.06.2025 08:00</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2352,6 +2422,11 @@
           <t>05.06.2025 23:30</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2379,6 +2454,11 @@
           <t>10.06.2025 10:00</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2406,6 +2486,11 @@
           <t>04.06.2025 15:00</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2433,6 +2518,11 @@
           <t>10.06.2025 10:00</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2460,6 +2550,11 @@
           <t>10.06.2025 10:00</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2487,6 +2582,11 @@
           <t>06.06.2025 10:18</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2514,6 +2614,11 @@
           <t>04.06.2025 12:00</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2541,6 +2646,11 @@
           <t>04.06.2025 12:00</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2568,6 +2678,11 @@
           <t>06.06.2025 16:00</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2595,6 +2710,11 @@
           <t>05.06.2025 10:00</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2622,6 +2742,11 @@
           <t>10.06.2025 23:30</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2647,6 +2772,1266 @@
       <c r="E75" t="inlineStr">
         <is>
           <t>11.06.2025 10:30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-04 08:00:24</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ADV1484879</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Servicii reparatii sigurante marmite</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>sigurante</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>06.06.2025 15:51</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-04 09:47:16</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ADV1484908</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Baterii electrice</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>09.06.2025 23:30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-06-04 09:48:42</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ADV1484928</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Grup de pompare apa potabila si alimentare hidranti cu panou de control (automatizare) si accesorii conexe</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>automatizare</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>11.06.2025 12:00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-06-04 10:44:52</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ADV1484933</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Terminal de interior 1kV</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>terminal</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>10.06.2025 08:00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-06-04 12:18:27</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ADV1484965</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Furnizare cablu troliu DSBC</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>cablu</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>09.06.2025 10:00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-06-04 12:18:27</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ADV1484960</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Statie radio portabila in banda licentiata UIF (UHF) cu accesorii – 10 buc + Set cablu USB si software programare statii radio portabile in banda licentiata UIF (UHF) – 1 buc + Acumulator statie radio portabila Motorola DP1400 – 10 buc</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>cablu</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>10.06.2025 11:00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-04 12:18:53</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ADV1484971</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Proiectoare LED</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>09.06.2025 23:00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-06-04 12:19:18</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ADV1484989</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Livrare si montaj module de depozitare</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>modul</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>11.06.2025 12:00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-06-04 13:34:02</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ADV1485015</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Convertor USB-CAN</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>convertor</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>06.06.2025 12:00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-06-04 13:34:11</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ADV1485031</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Proiectare si executie pentru obiectivul Alimentare cu energie electrica statii reincarcare vehicule electrice amplasate in municipiul Falticeni, str. Republicii, nr. 13, jud. Suceava</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>11.06.2025 09:00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-06-04 13:34:18</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ADV1485011</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Sigurante si accesorii</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>sigurante</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>06.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-06-04 13:34:19</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ADV1485022</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Servicii de elaborare a expertizei tehnice privind evaluarea stării de siguranță a obiectivelor miniere aflate în etapa de monitorizare postînchidere și de conservare din zona Baia Mare și Moldova</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>siguranta</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>12.06.2025 12:00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-04 13:34:20</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ADV1485012</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Siguranta automata</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>siguranta</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>06.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-04 13:34:32</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ADV1485010</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Conectori si accesorii</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>conector</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>06.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-06-04 13:34:36</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ADV1485009</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Achizitie cabluri HDMI</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>cabluri</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>06.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-06-04 13:35:04</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ADV1062484</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Furnizare drivere pentru corpuri led</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>11.06.2025 12:56</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-06-05 07:47:20</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ADV1485057</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Alimentator</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>alimentator</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>05.06.2025 14:00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-06-05 07:47:39</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ADV1485080</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ACHIZITIONARE DIVERSE PRODUSE PENTRU INSTALATIILE ELECTRICE</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>10.06.2025 09:00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-06-05 07:47:39</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ADV1485054</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Achiziții materiale electrice</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>10.06.2025 10:00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-06-05 07:47:49</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ADV1485046</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>FURNIZARE KIT RAM 16GB, HDD NAS, SET SURSA ALIMENTARE</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>sursa</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>06.06.2025 10:00</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-06-05 07:48:56</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ADV1485087</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Servicii de „Instruire online soluție percheziție informatică telefoane mobile (12 module)”</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>modul</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>09.06.2025 23:59</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-06-05 07:48:57</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ADV1485056</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Furnizare modul GSM pentru DSC NEO HS2016 CU MONTARE SI INSTALARE</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>modul</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>09.06.2025 16:00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-06-05 07:49:05</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ADV1485049</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Achiziție servicii de organizare cursuri formare de competențe relevante pentru piața muncii, dedicate elevilor și studenților în cadrul proiectului Construire Campus Dual Integrat Banatul Montan Reșița”, cod ID_15</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>rele</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>11.06.2025 15:00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-06-05 07:49:39</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ADV1485088</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ELABORARE DOCUMENTATII TEHNICE PENTRU DESCOPERTA STERILULUI, IN VEDEREA VALORIFICARII LIGNITULUI</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Societatea COMPLEXUL ENERGETIC OLTENIA SA</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>10.06.2025 09:00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-06-05 08:07:14</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ADV1485059</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Achiziție cablu de cupru armat</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>cablu</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>06.06.2025 16:00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-06-05 10:07:07</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ADV1485186</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Achizitie switch-uri</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>switch</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>11.06.2025 12:00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-06-05 10:07:19</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ADV1485148</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Dispozitiv de tăiat cabluri cu acumulator si Cleşte cu clichet pentru tăierea cablurilor cu diametru maxim de 62 mm.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>cabluri</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>11.06.2025 16:00</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-06-05 10:08:55</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ADV1485160</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>”ACTUALIZARE DEVIZE GENERALE SI INTOCMIRE COMPENSATOARE” , cod CPV 71241000-9</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Societatea COMPLEXUL ENERGETIC OLTENIA SA</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>10.06.2025 09:00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-06-05 11:05:25</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ADV1485200</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Ciment, stâlp din beton, sârmă ghimpată, sârmă concertină, suport concertină, suport de sârmă pentru spalier, stâlp conic, lampă iluminat, cablu electric, doză de conexiune, senzor, balast</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>pin</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>11.06.2025 12:00</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-06-05 14:55:13</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ADV1485303</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ACCESORII PENTRU APARATELE DE MASURAT GROSIMI, CR 43197</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>aparate de masura</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>13.06.2025 13:24</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>ADV1485303</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-06-05 14:55:27</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ADV1485251</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Electronice, rețelistică</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>electronice</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>10.06.2025 12:00</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-06-05 14:55:29</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ADV1485240</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Instalatie electrica de utilizare subterana plus tablouri electrice complet echipate in Parcul Tineretului</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>11.06.2025 23:59</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-06-05 14:55:29</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ADV1485218</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>materiale electrice, sanitare ;i de constructie</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>06.06.2025 10:30</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-06-05 14:55:39</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ADV1485255</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Sursa neintreruptibila 3kVA (UPS), 4 buc, conform Caiet de sarcini</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>sursa</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>12.06.2025 14:00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-06-05 14:55:50</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ADV1485247</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Dibluri; Set conectori +Tuburi Termocontractabile; Canalet cablu autoadeziv;Pistol lipit 100W; Trusa clesti sertirizare</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>conector</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>10.06.2025 11:00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-06-05 14:55:54</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ADV1485274</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Cabluri si produse conexe</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>cabluri</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>06.06.2025 23:59</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-06-05 14:56:01</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ADV1470482</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>TERMINAL DE INTERIOR CR 42755</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>terminal</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>10.06.2025 16:00</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-06-05 14:56:06</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ADV1485311</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Achizitie piese auto DUSTER LOGAN KANGOO TRANSPORTER TUCSON JUMPER</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>jumper</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>10.06.2025 10:00</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-06-05 14:57:43</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ADV1485290</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Franghie pantograf- Franghie poliester 100m x 8mm</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>COMPANIA DE TRANSPORT PUBLIC SA Arad</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>05.06.2025 15:00</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Verificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-06-05 15:32:18</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ADV1485332</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ustensile de laborator (lot1,lot2,lot3)</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Societatea COMPLEXUL ENERGETIC OLTENIA SA</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>13.06.2025 10:00</t>
         </is>
       </c>
     </row>

--- a/seap_results.xlsx
+++ b/seap_results.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
       <selection activeCell="B149" sqref="B149"/>
@@ -5374,6 +5374,357 @@
         </is>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-06-12 08:12:57</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ADV1486086</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Achiziție servicii de audit financiar pentru obiectivul de investiții” Realizare sistem fotovoltaic de producere a energiei electrice pentru autoconsum la Stația de Pompieri Grădiștea din cadrul Inspectoratului pentru Situații de Urgență al județului Vâlcea”, COD SMIS 316126</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>18.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-06-12 08:12:57</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ADV1486072</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Realizare sistem fotovoltaic de producere a energiei electrice pentru autoconsum la Stația de Pompieri Grădiștea din cadrul Inspectoratului pentru Situații de Urgență al județului Vâlcea.</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>18.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-06-12 08:12:58</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ADV1486047</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Serviciu de incarcare a autovehiculelor electrice</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>16.06.2025 11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-06-12 11:31:20</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ADV1486157</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Achizitie materiale electrice</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>13.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-06-12 11:31:20</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ADV1486153</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Achizitie materiale electrice Dep. Chinie</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>13.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-06-12 11:31:20</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ADV1486117</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>LUCRARI DE INSTALATII ELECTRICE SCJUPBT</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>24.06.2025 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-06-12 11:31:21</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ADV1486108</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>uscatoare de maini electrice,dispensere pentru hartie igienica,dispensere pentru prosoape de hartie si dozatoare de sapun</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>16.06.2025 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-06-12 11:31:32</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ADV1486163</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Surse de alimentare - 2 loturi</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>surse</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>16.06.2025 11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-06-12 14:30:06</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ADV1479195</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Sistem de protecție împotriva descărcărilor atmosferice cu paratoner și instalație de legare la pământ pentru protejarea instalațiilor mecanice și electrice ce aparțin obiectivului SRM Alămor - ET Mediaș, PT_INV_10819/2024</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>19.06.2025 13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-06-12 14:30:11</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ADV1486238</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Achizitie router tip FIREWALL</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>router</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>16.06.2025 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-06-12 14:30:58</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ADV1486212</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Tuburi LED</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>13.06.2025 09:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-06-12 14:31:20</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ADV1486232</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Verificare periodică sistem senzori detectare temperatura/ fum, sirene alarmare si centrale de comanda</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>senzor</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>18.06.2025 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-06-12 14:31:38</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ADV1486204</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Acumulator Warn 24 volți, 2,5 Ah-PulzzAll pentru dispozitivele de tractare si ridicare</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>dispozitive</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>13.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/seap_results.xlsx
+++ b/seap_results.xlsx
@@ -419,10 +419,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -5725,6 +5725,1653 @@
         </is>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-06-13 08:06:56</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ADV1486278</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Materiale electrice</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>16.06.2025 14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-06-13 08:06:57</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ADV1486272</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Materiale electrice</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>16.06.2025 14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-06-13 10:07:15</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ADV1486306</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Dispozitiv hidraulic de taiat cabluri cu actionare manuala.</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>cabluri</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>19.06.2025 16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-06-13 10:07:17</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ADV1486325</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Sonda electrica cu tambur si cablu (freatimetru) 100 m – 1 buc + Sonda electrica cu tambur si cablu (freatimetru) 50 m – 3 buc</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>cablu</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>20.06.2025 11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-06-13 10:07:44</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ADV1486334</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Corp iluminat cu led</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>17.06.2025 09:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-06-13 10:08:49</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ADV1486341</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>„Servicii de informare și publicitate pentru proiectul “Lucrări de extindere a Școlii Gimnaziale 88, inclusiv consolidare, modernizare și creșterea eficienței energetice”, cod SMIS: 318675, finanțat prin PR BI 2021-2027”</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Societatea COMPLEXUL ENERGETIC OLTENIA SA</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>18.06.2025 16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-06-13 13:26:23</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ADV1486436</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Materiale electrice necesare laboratorului HORESEC</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>18.06.2025 14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-06-13 13:26:23</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ADV1486414</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Materiale electrice</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>17.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-06-13 13:26:33</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ADV1486442</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>PS0020 - ACHIZITIE SURSA ALIMENTARE IMCO POWER SUPPLY</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>sursa</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>19.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-06-13 13:26:38</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ADV1486407</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Unitate cu 32 intrari complet independente/Unitate cu 16 iesiri digitale tranzistori</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>tranzistor</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>16.06.2025 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-06-13 13:26:48</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ADV1486346</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Furnizare Dispozitiv electrohidraulic taiat cabluri la distanta la DEER SA - Suc. Galati</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>cabluri</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>17.06.2025 16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-06-13 13:26:50</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ADV1486369</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>LN3 – Reparatie pod rulant 50/10 tf – Inlocuire cablu carlig 10 tf din CTE Grozavesti</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>cablu</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>20.06.2025 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-06-13 13:27:44</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ADV1486389</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Achizitie modul protectie pornire RESTART TYPE RE0701 GENERATOR</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>modul</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>17.06.2025 11:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-06-13 13:28:27</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ADV1486353</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Truse medicale de prim ajutor</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Societatea COMPLEXUL ENERGETIC OLTENIA SA</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>19.06.2025 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-06-16 08:06:50</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ADV1486484</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Studiu de oportunitate privind implementarea de soluții de producere a energiei electrice din surse regenerabile, de stocare a acesteia și valorificarea potențialului geotermal existent in Sectorul 1, Bucuresti</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>23.06.2025 13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-06-16 08:06:57</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>ADV1486468</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Sigurante si accesorii</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>sigurante</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>17.06.2025 14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-06-16 08:07:16</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ADV1486460</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>MATERIALE REPARAȚII: LOT 1 – ARTICOLE SANITARE; LOT 2 - CABLU RG59</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>cablu</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>16.06.2025 13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-06-16 08:08:04</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ADV1486488</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Lucrari de reparatie, renovare si igienizare CABINET SENZORIAL</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>senzor</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>19.06.2025 14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-06-16 10:06:40</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ADV1486533</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Detector traseu circuite electrice sub tencuiala</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>circuite</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>17.06.2025 09:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-06-16 12:07:15</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ADV1486557</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Cabluri de semnalizare - SRCF CTA</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>cabluri</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>23.06.2025 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-06-16 12:09:05</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ADV1486545</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Materiale lemnoase tâmplărie- Pachet- cherstea rasinoase,cherestea frasin</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>COMPANIA DE TRANSPORT PUBLIC SA Arad</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>17.06.2025 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-06-16 14:07:07</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ADV1486648</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>SURSĂ CALCULATOR compatibilă Lenovo ThinkCentre M75S - 2 buc.</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>sursa</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>18.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-06-16 14:08:17</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ADV1486621</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Achizitie directa medicamente pentru sistemul nervos si organele senzoriale</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>senzor</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>18.06.2025 12:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-06-16 14:09:17</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ADV1486604</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Acumulatori auto si baterii (fara intretinere)-Acumulatori 12Vx 150 A.</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>COMPANIA DE TRANSPORT PUBLIC SA Arad</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>17.06.2025 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:07:00</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ADV1486751</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>VERIFICARE CONTINUITATI PRIZE, TABLOURI ELECTRICE SI PRIZE DE PAMANT (PRAM) 2025</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>rezistenta</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>19.06.2025 13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:07:01</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ADV1486742</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Achizitie materiale electrice</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>rezistenta</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>18.06.2025 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:07:08</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ADV1486755</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>ACHIZITIE DULAP DE SIGURANTA, CU SISTEM DE ASPIRARE,VENTILATIE SI FILTRARE, PENTRU CONTAINERE DE PROBE HISTOPATOLOGICE/REACTIVI, SCAUNE DE LUCRU IN LABORATOR</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>siguranta</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>23.06.2025 16:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:07:08</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ADV1486675</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Echipament de siguranta pentru lucrul la inaltime</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>siguranta</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>17.06.2025 13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:07:26</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ADV1486716</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Achizitie locator traseu cablu la DEER SA</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>cablu</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>19.06.2025 16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:07:27</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ADV1486715</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Achizitie cablu retea conform referat nr 20528/13.06.2025</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>cablu</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>18.06.2025 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:07:39</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ADV1486665</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Lucrari de inlocuire placa/aducere la cota a caminelor de vizitare apa-canal si a gurilor de scurgere (geigere)</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>placa</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>25.06.2025 14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:07:54</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ADV1486713</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>PACHET PANOURI LED (diferite dimensiuni)</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>17.06.2025 14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:08:13</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ADV1486714</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Testere retea</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>tester</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>17.06.2025 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:09:15</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ADV1486684</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Materiale neferoase (tabla, profile, bare, tevi)- Bagheta Brazare Cupru-Argint CuAg15(aliaj lipire cupru).</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>COMPANIA DE TRANSPORT PUBLIC SA Arad</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>17.06.2025 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-06-17 10:06:51</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ADV1486772</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>ELECTRICE</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>24.06.2025 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-06-17 10:06:51</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ADV1486771</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>LUCRARI DE AMENAJARI INSTALATII ELECTRICE</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>20.06.2025 14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-06-17 10:06:59</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ADV1486779</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>siguranță rapidă FPQ-R-25- 6 buc , sigurnață 25A , 1kVDC, gPV, 10,2x38 mm , SPF – 10 buc</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>siguranta</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>19.06.2025 08:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-06-18 08:17:28</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ADV1486983</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Lucrari de reparatii circuitul de incalzire si apa calda menajera</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>circuit</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>20.06.2025 11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-06-18 08:17:35</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ADV1486900</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>reluare achizitie piese electrice</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>20.06.2025 13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-06-18 08:17:43</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ADV1486960</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>„ Reparaţii curente la rezervoarele de depozitare produse petroliere R1-R5, R7, R8, R11, R12, R109, R110 (11 buc) pentru înlocuirea supapelor mecanice de respiraţie pentru suprapresiune și vacuum; supapelor hidraulice de siguranţă pe lina de aerisire vas şi opritorilor de flacară pentru deflagraţii</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>siguranta</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>30.06.2025 15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-06-18 08:17:43</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ADV1486904</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Documentatii tehnice Sistem de monitorizare si siguranta spatiului public</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>siguranta</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>20.06.2025 12:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-06-18 08:18:51</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ADV1486976</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Funizare cu montaj și punere în funcțiune a unui ansamblu modular realizat din 3(trei) containere metalice - Post Politie Obarsia Closani - Mehedinti</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>modul</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>24.06.2025 08:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-06-18 08:18:51</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ADV1486975</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Cazane incalzire, respectiv cazane modulare in condensare de putere minima P=100 Kw</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>modul</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>20.06.2025 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-06-18 08:18:51</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ADV1486974</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Funizare cu montaj și punere în funcțiune a unui ansamblu modular realizat din 3(trei) containere metalice - Post Politie Vanjulet - Mehedinti</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>modul</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>24.06.2025 08:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-06-18 08:18:52</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ADV1486888</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Contract de furnizare ,, Container modular -1 buc "</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>modul</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>20.06.2025 16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-06-18 08:18:58</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>ADV1486922</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Relee - CR 43771</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>relee</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>24.06.2025 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-06-18 08:19:34</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>ADV1486869</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>„Servicii de inchiriere autovehicule de transport mixt (persoane si materiale) cu sofer” – 6 loturi</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Societatea COMPLEXUL ENERGETIC OLTENIA SA</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>19.06.2025 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-06-18 10:08:09</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>ADV1486999</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>modul CISCO EHWIC-IGE- SFP</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>modul</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>20.06.2025 09:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-06-18 10:08:34</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>ADV1486889</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Furnizare materiale didactice precum si alte materiale, instrumente, echipamente specifice necesare dotarii salilor de clasa, laboratorului de chimie, cabinetul psihopedagogic si atelierului de practica din cadrul Liceului Teoretic George Valsan, in contextul implementarii proiectului finantat in</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>echipamente de laborator</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>27.06.2025 12:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-06-18 10:08:34</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ADV1486853</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Furnizare materiale didactice precum si alte materiale, instrumente, echipamente specifice necesare dotarii salilor de clasa, laboratorului de chimie, cabinetul psihopedagogic si atelierului de practica din cadrul Liceului Teoretic George Valsan, in contextul implementarii proiectului finantat in</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>echipamente de laborator</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>27.06.2025 11:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-06-18 11:59:37</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>ADV1487036</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Achizitie placa WEISS</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>placa</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>23.06.2025 08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-06-18 11:59:51</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ADV1487037</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>FURNIZARE LANTERNĂ LED</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>20.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-06-18 12:00:13</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>ADV1487050</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Servicii de rescriere soft bariere/porţi şi verificare/reparare senzori</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>senzor</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>20.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-06-18 12:00:17</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>ADV1487030</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>SERVICII DE REVIZIE CU VERIFICARE MDETROLOGICA SI INTERVENTII LA SOLICITARE PENTRU CANTAR AUTO MODULAR</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>modul</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>20.06.2025 14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-06-18 13:39:20</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>ADV1487098</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>LN1 – Intretinere si verificari profilactice la instalatia de masurare a indicilor chimici din circuitul de apa-abur aferenta meselor de probe din cadrul CTE Progresu</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>circuit</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>24.06.2025 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-06-18 13:39:37</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>ADV1487069</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Servicii de proiectare, verificare tehnică a documentațiilor și asistență tehnică din partea proiectantului pentru obiectiv “Instalare de noi capacitati de producere a energiei electrice din surse regenerabile de tip solar pentru autoconsum in orasul Horezu, Judetul Valcea</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>surse</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>25.06.2025 13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-06-18 13:40:48</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ADV1487102</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Achizitie releu digital tip ETR4-70-A (E aton)</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>releu</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>19.06.2025 16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-06-18 13:41:00</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>ADV1487096</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Lucrări de reparații fațadă și sistem de colectare ape pluviale la construcția 45 – 116 – 01 – pavilion comandament</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>sistem de comanda</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>23.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-06-18 14:52:08</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ADV1487130</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Achizitie accesorii electrice si componente de retea</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>24.06.2025 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-06-18 14:52:08</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>ADV1487114</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Materiale pentru instalații electrice</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>19.06.2025 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-06-18 14:52:09</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>ADV1487084</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Reparatii instalatii electrice corp C 1La Liceul Tehnologic Special Gheorghe Atanasiu</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>electrice</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>25.06.2025 12:47</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
